--- a/Nhap.xlsx
+++ b/Nhap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TNC\Downloads\AssignmentChamCong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A72FDF60-673D-49E0-99A1-1CAE7223839D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E764CA5A-7A62-4E51-8533-ECF91BEAD0E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" xr2:uid="{9F273C2D-E24E-48DF-8526-0F958D135817}"/>
   </bookViews>
@@ -222,7 +222,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -611,46 +611,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,52 +641,79 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D6395F-2144-4646-BA60-7ECBA0381391}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1041,7 +1041,7 @@
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="19" max="19" width="34.85546875" customWidth="1"/>
   </cols>
@@ -1065,7 +1065,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="45">
+    <row r="8" spans="1:24" ht="30">
       <c r="E8" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="G11" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="21">
         <v>44569</v>
       </c>
       <c r="K11" t="s">
@@ -1155,7 +1155,7 @@
       <c r="K12" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="20">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1166,16 +1166,16 @@
       <c r="K13" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="20">
         <v>0.625</v>
       </c>
-      <c r="N13" s="35" t="s">
+      <c r="N13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
     </row>
     <row r="14" spans="1:24">
       <c r="J14" t="s">
@@ -1190,7 +1190,7 @@
       <c r="N14" t="s">
         <v>40</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="22" t="s">
         <v>47</v>
       </c>
       <c r="X14" t="s">
@@ -1219,223 +1219,223 @@
     </row>
     <row r="17" spans="2:40" ht="15.75" thickBot="1"/>
     <row r="18" spans="2:40" ht="17.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="13" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="15"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="35"/>
     </row>
     <row r="19" spans="2:40" ht="15.75" thickBot="1">
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="9">
         <v>2</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="9">
         <v>4</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="9">
         <v>5</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="9">
         <v>6</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="9">
         <v>7</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="9">
         <v>8</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="9">
         <v>9</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="9">
         <v>11</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="9">
         <v>12</v>
       </c>
-      <c r="P19" s="18">
-        <v>13</v>
-      </c>
-      <c r="Q19" s="18">
+      <c r="P19" s="9">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="9">
         <v>14</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19" s="9">
         <v>15</v>
       </c>
-      <c r="S19" s="18">
+      <c r="S19" s="9">
         <v>16</v>
       </c>
-      <c r="T19" s="19" t="s">
+      <c r="T19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="U19" s="18">
+      <c r="U19" s="9">
         <v>18</v>
       </c>
-      <c r="V19" s="18">
+      <c r="V19" s="9">
         <v>19</v>
       </c>
-      <c r="W19" s="18">
+      <c r="W19" s="9">
         <v>20</v>
       </c>
-      <c r="X19" s="18">
+      <c r="X19" s="9">
         <v>21</v>
       </c>
-      <c r="Y19" s="18">
+      <c r="Y19" s="9">
         <v>22</v>
       </c>
-      <c r="Z19" s="18">
+      <c r="Z19" s="9">
         <v>23</v>
       </c>
-      <c r="AA19" s="19" t="s">
+      <c r="AA19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AB19" s="9">
         <v>25</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AC19" s="9">
         <v>26</v>
       </c>
-      <c r="AD19" s="18">
+      <c r="AD19" s="9">
         <v>27</v>
       </c>
-      <c r="AE19" s="18">
+      <c r="AE19" s="9">
         <v>28</v>
       </c>
-      <c r="AF19" s="18">
+      <c r="AF19" s="9">
         <v>29</v>
       </c>
-      <c r="AG19" s="18">
+      <c r="AG19" s="9">
         <v>30</v>
       </c>
-      <c r="AH19" s="19" t="s">
+      <c r="AH19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AI19" s="20" t="s">
+      <c r="AI19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AJ19" s="21" t="s">
+      <c r="AJ19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AK19" s="21" t="s">
+      <c r="AK19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AL19" s="21" t="s">
+      <c r="AL19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AM19" s="21" t="s">
+      <c r="AM19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AN19" s="22" t="s">
+      <c r="AN19" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:40" ht="15.75">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="30">
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="16">
         <f>SUM(AI21:AI29)</f>
         <v>26</v>
       </c>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="32">
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="18">
         <f>SUM(AK21:AK29)</f>
         <v>0</v>
       </c>
-      <c r="AL20" s="31">
+      <c r="AL20" s="17">
         <f>SUM(AL21:AL29)</f>
         <v>0</v>
       </c>
-      <c r="AM20" s="31">
+      <c r="AM20" s="17">
         <f>SUM(AM21:AM29)</f>
         <v>0</v>
       </c>
-      <c r="AN20" s="33">
+      <c r="AN20" s="19">
         <f>SUM(AN21:AN29)</f>
         <v>0</v>
       </c>
@@ -1546,145 +1546,145 @@
       <c r="D22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AI22" s="35" t="s">
+      <c r="AI22" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="25"/>
     </row>
     <row r="24" spans="2:40">
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" spans="2:40">
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" spans="2:40">
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
     </row>
     <row r="27" spans="2:40">
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
     </row>
     <row r="28" spans="2:40">
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
     </row>
     <row r="29" spans="2:40">
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" spans="2:40">
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
     </row>
     <row r="31" spans="2:40">
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
     </row>
     <row r="32" spans="2:40">
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
     </row>
     <row r="33" spans="4:20">
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="4:20">
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
     </row>
     <row r="35" spans="4:20">
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
     </row>
     <row r="36" spans="4:20">
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
     </row>
     <row r="38" spans="4:20">
       <c r="D38" t="s">
@@ -1718,10 +1718,10 @@
       <c r="E40" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="I40" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K40" s="34">
+      <c r="K40" s="20">
         <v>0.625</v>
       </c>
       <c r="L40">
@@ -1762,7 +1762,7 @@
       <c r="D44">
         <v>5</v>
       </c>
-      <c r="O44" s="40" t="s">
+      <c r="O44" s="24" t="s">
         <v>55</v>
       </c>
       <c r="P44">
@@ -1779,7 +1779,7 @@
       <c r="D45">
         <v>6</v>
       </c>
-      <c r="O45" s="40"/>
+      <c r="O45" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
